--- a/AutoBlueSystemSrc/products.xlsx
+++ b/AutoBlueSystemSrc/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\raffettosBlueSystemAddons\AutoBlueSystemSrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA5D1CA-CA92-4AEB-8F30-67352C27FAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3AF786-06DA-403C-8886-C3296505BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="5415" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Fettuccine</t>
   </si>
   <si>
-    <t>Pappardelle</t>
-  </si>
-  <si>
     <t>01PAPP</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>S2LING</t>
+  </si>
+  <si>
+    <t>Plain Egg Pappardelle</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
